--- a/音源仕様.xlsx
+++ b/音源仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takashi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5999CAE0-1592-4AB4-A942-DA5DA57BDDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F7B742-B73D-45FF-B255-BFCA67830D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC0ED6DE-1C1C-4563-9F26-F3F6FDA4C8BE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>必要な音</t>
     <rPh sb="0" eb="2">
@@ -657,7 +657,7 @@
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E3:E4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -771,7 +771,9 @@
       <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
